--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -527,11 +527,11 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>FK Steindølene 1</t>
+          <t>Emil Korsnes</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>47463764</v>
+        <v>96047880</v>
       </c>
       <c r="K2" t="inlineStr"/>
     </row>
@@ -568,11 +568,11 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Omega FK</t>
+          <t>Emil Korsnes</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>47673859</v>
+        <v>96047880</v>
       </c>
       <c r="K3" t="inlineStr"/>
     </row>
@@ -609,11 +609,11 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>FK Steindølene 2</t>
+          <t>Heja Hosseinzadeh</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>98430680</v>
+        <v>40174039</v>
       </c>
       <c r="K4" t="inlineStr"/>
     </row>
@@ -623,13 +623,17 @@
           <t>SALT IF</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>NTNUI Champs</t>
@@ -650,11 +654,11 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Marin FK</t>
+          <t>Elias Ward Heimdal</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>41571803</v>
+        <v>47265035</v>
       </c>
       <c r="K5" t="inlineStr"/>
     </row>
@@ -846,7 +850,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NTNUI Champs</t>
+          <t>Pareto FK</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -858,7 +862,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FC BI United</t>
+          <t>SALT IF</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
@@ -907,7 +911,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -928,7 +932,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pareto FK</t>
+          <t>NTNUI Champs</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -940,7 +944,7 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SALT IF</t>
+          <t>FC BI United</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
@@ -1053,7 +1057,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1320,7 +1324,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1849,7 +1853,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pareto FK</t>
+          <t>SALT IF</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1861,7 +1865,7 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAF </t>
+          <t>Energi FK</t>
         </is>
       </c>
       <c r="F38" s="2" t="n">
@@ -1890,7 +1894,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SALT IF</t>
+          <t>Pareto FK</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1902,7 +1906,7 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Energi FK</t>
+          <t xml:space="preserve">CAF </t>
         </is>
       </c>
       <c r="F39" s="2" t="n">
@@ -2401,7 +2405,7 @@
         </is>
       </c>
       <c r="F52" s="2" t="n">
-        <v>45234</v>
+        <v>45598</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2442,7 +2446,7 @@
         </is>
       </c>
       <c r="F53" s="2" t="n">
-        <v>45234</v>
+        <v>45598</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2483,7 +2487,7 @@
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>45234</v>
+        <v>45598</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2524,7 +2528,7 @@
         </is>
       </c>
       <c r="F55" s="2" t="n">
-        <v>45235</v>
+        <v>45599</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2565,7 +2569,7 @@
         </is>
       </c>
       <c r="F56" s="2" t="n">
-        <v>45235</v>
+        <v>45599</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2761,7 +2765,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tempe HOvedbane </t>
+          <t xml:space="preserve">Tempe Hovedbane </t>
         </is>
       </c>
       <c r="I61" t="inlineStr">

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -582,13 +582,17 @@
           <t>Datakameratene FK</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Realkameratene FK</t>

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -500,13 +500,17 @@
           <t>CAF</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Omega Løkka</t>
@@ -541,13 +545,17 @@
           <t>FC BI United</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Tim&amp;Shænko</t>
@@ -672,13 +680,17 @@
           <t>Pareto FK</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Energi FK</t>

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -910,13 +910,17 @@
           <t>Energi FK</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Datakameratene FK</t>

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -955,13 +955,17 @@
           <t>NTNUI Champs</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>FC BI United</t>

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -787,13 +787,17 @@
           <t>Tim&amp;Shænko</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>CAF</t>
@@ -828,13 +832,17 @@
           <t>Realkameratene FK</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Omega Løkka</t>
@@ -869,13 +877,17 @@
           <t>Pareto FK</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>SALT IF</t>

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -878,15 +878,15 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -1117,16 +1117,20 @@
           <t>Datakameratene FK</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omega Løkka </t>
+          <t>Omega Løkka</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -1076,13 +1076,17 @@
           <t>CAF</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>FC BI United</t>
@@ -1162,16 +1166,20 @@
           <t>SALT IF</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tim&amp;Shænko </t>
+          <t>Tim&amp;Shænko</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
@@ -1203,13 +1211,17 @@
           <t>Pareto FK</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>Realkameratene FK</t>

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -1646,13 +1646,17 @@
           <t>NTNUI Champs</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>6</v>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>CAF</t>
@@ -1687,13 +1691,17 @@
           <t>Energi FK</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>Realkameratene FK</t>

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -1818,16 +1818,20 @@
           <t>Datakameratene FK</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC BI United </t>
+          <t>FC BI United</t>
         </is>
       </c>
       <c r="F34" s="2" t="n">

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -1777,13 +1777,17 @@
           <t>SALT IF</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>Omega Løkka</t>

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -1944,13 +1944,17 @@
           <t>CAF</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>Energi FK</t>
@@ -2026,13 +2030,17 @@
           <t>Realkameratene FK</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>4</v>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>6</v>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>SALT IF</t>
@@ -2067,13 +2075,17 @@
           <t>Tim&amp;Shænko</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>6</v>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>Datakameratene FK</t>
@@ -2108,13 +2120,17 @@
           <t>Omega Løkka</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>6</v>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>FC BI United</t>

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -1989,13 +1989,17 @@
           <t>NTNUI Champs</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>Pareto FK</t>

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -2272,16 +2272,20 @@
           <t>Pareto FK</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>8</v>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAF </t>
+          <t>CAF</t>
         </is>
       </c>
       <c r="F46" s="2" t="n">

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -2358,13 +2358,17 @@
           <t>FC BI United</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>Realkameratene FK</t>

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -2317,16 +2317,20 @@
           <t>Datakameratene FK</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>3</v>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">NTNUI Champs </t>
+          <t>NTNUI Champs</t>
         </is>
       </c>
       <c r="F47" s="2" t="n">

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -2231,13 +2231,17 @@
           <t>SALT IF</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>Energi FK</t>

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -2516,13 +2516,17 @@
           <t>CAF</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>SALT IF</t>
@@ -2557,13 +2561,17 @@
           <t>Pareto FK</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>Datakameratene FK</t>
@@ -2598,13 +2606,17 @@
           <t>Energi FK</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
       <c r="C54" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>FC BI United</t>
@@ -2639,13 +2651,17 @@
           <t>NTNUI Champs</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="n">
+        <v>8</v>
+      </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>Omega Løkka</t>

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -2885,13 +2885,17 @@
           <t>Omega Løkka</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>2</v>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>8</v>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>Pareto FK</t>
@@ -2926,13 +2930,17 @@
           <t>Tim&amp;Shænko</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>4</v>
+      </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>4</v>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>Energi FK</t>

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -2975,16 +2975,20 @@
           <t>Realkameratene FK</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
       <c r="C63" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">NTNUI Champs </t>
+          <t>NTNUI Champs</t>
         </is>
       </c>
       <c r="F63" s="2" t="n">

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -2844,13 +2844,17 @@
           <t>FC BI United</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
       <c r="C60" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>4</v>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>SALT IF</t>

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -2803,13 +2803,17 @@
           <t>Datakameratene FK</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>9</v>
+      </c>
       <c r="C59" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>4</v>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>CAF</t>

--- a/Scripts/Kamper/H24/Avd-B.xlsx
+++ b/Scripts/Kamper/H24/Avd-B.xlsx
@@ -1256,13 +1256,17 @@
           <t>Energi FK</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>NTNUI Champs</t>
@@ -1736,13 +1740,17 @@
           <t>Pareto FK</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>Tim&amp;Shænko</t>
